--- a/biology/Botanique/Langiophytopsida/Langiophytopsida.xlsx
+++ b/biology/Botanique/Langiophytopsida/Langiophytopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Langiophytophyta
 Les Langiophytopsida, uniques représentants de la division des Langiophytophyta, sont une classe éteinte de plantes du groupe des Bryophytes.
@@ -512,10 +524,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La classe et la division ont été nommées en 2001 par le botaniste russe Alexander Borissowitsch Doweld (d)[1]. Leur nom est formé sur le genre type Langiophyton W. Remy &amp; Hass, 1991 suivi des terminaisons latines indiquant le rang de classe (-opsida) et de division (-phyta).
-Langiophytopsida a pour synonymes[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La classe et la division ont été nommées en 2001 par le botaniste russe Alexander Borissowitsch Doweld (d). Leur nom est formé sur le genre type Langiophyton W. Remy &amp; Hass, 1991 suivi des terminaisons latines indiquant le rang de classe (-opsida) et de division (-phyta).
+Langiophytopsida a pour synonymes, :
 Horneophytidae Němejc, 1963
 Horneophytopsida S.V.Meyen, 1978</t>
         </is>
@@ -545,12 +559,14 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classe regroupe les deux ordres suivants[3],[4],[5],[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe regroupe les deux ordres suivants :
 † Langiophytales Doweld, 2001
 † Lyonophytales Doweld, 2001
-Le nom Horneophytales Novák, 1961 (genre type : Horneophyton Bargh. &amp; Darrah, 1938) est placé en synonyme de Langiophytales (genre type : Langiophyton W. Remy &amp; Hass, 1991) afin de baser la nomenclature sur des noms génériques décrits à partir de tiges de gamétophytes (comme cela est accepté dans la systématique moderne des Bryophytes et des Marchantiophytes) plutôt que sur le nom générique Horneophyton qui a été décrit à partir d'un sporophyte[7].
+Le nom Horneophytales Novák, 1961 (genre type : Horneophyton Bargh. &amp; Darrah, 1938) est placé en synonyme de Langiophytales (genre type : Langiophyton W. Remy &amp; Hass, 1991) afin de baser la nomenclature sur des noms génériques décrits à partir de tiges de gamétophytes (comme cela est accepté dans la systématique moderne des Bryophytes et des Marchantiophytes) plutôt que sur le nom générique Horneophyton qui a été décrit à partir d'un sporophyte.
 </t>
         </is>
       </c>
